--- a/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
@@ -458,180 +458,180 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (3, 8) and remove the liquid spill.</t>
+          <t>Move to location (9, 5) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60.924857</v>
+        <v>75.906284</v>
       </c>
       <c r="C2" t="n">
-        <v>10611</v>
+        <v>10794</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03066</t>
+          <t>0.03354</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (1, 4) and remove the large debris.</t>
+          <t>Move to location (3, 8) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.648506</v>
+        <v>60.924857</v>
       </c>
       <c r="C3" t="n">
-        <v>11215</v>
+        <v>10611</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03339</t>
+          <t>0.03066</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (6, 5) and remove the dust.</t>
+          <t>Move to location (1, 4) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.44749899999999</v>
+        <v>74.648506</v>
       </c>
       <c r="C4" t="n">
-        <v>13271</v>
+        <v>11215</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03813</t>
+          <t>0.03339</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the grass.</t>
+          <t>Move to location (6, 5) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68.22047499999999</v>
+        <v>77.44749899999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10398</v>
+        <v>13271</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03126</t>
+          <t>0.03813</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (5, 12) and remove the small debris.</t>
+          <t>Move to location (9, 5) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>60.054094</v>
+        <v>68.22047499999999</v>
       </c>
       <c r="C6" t="n">
-        <v>10693</v>
+        <v>10398</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03168</t>
+          <t>0.03126</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (11, 12) and remove the vehicle.</t>
+          <t>Move to location (5, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.091231</v>
+        <v>60.054094</v>
       </c>
       <c r="C7" t="n">
-        <v>10688</v>
+        <v>10693</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.03168</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (12, 1) and remove the construction materials.</t>
+          <t>Move to location (11, 12) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.60854399999999</v>
+        <v>61.091231</v>
       </c>
       <c r="C8" t="n">
-        <v>13719</v>
+        <v>10688</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03552</t>
+          <t>0.0309</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (8, 12) and remove the tree branches.</t>
+          <t>Move to location (12, 1) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.20929700000001</v>
+        <v>87.60854399999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10961</v>
+        <v>13719</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03276</t>
+          <t>0.03552</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (3, 5) and remove the screws.</t>
+          <t>Move to location (8, 12) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.179134</v>
+        <v>66.20929700000001</v>
       </c>
       <c r="C10" t="n">
-        <v>10178</v>
+        <v>10961</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.02952</t>
+          <t>0.03276</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
+          <t>Move to location (3, 5) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>81.137579</v>
+        <v>72.179134</v>
       </c>
       <c r="C11" t="n">
-        <v>13655</v>
+        <v>10178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.03939</t>
+          <t>0.02952</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>cost</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>run_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,14 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.906284</v>
+        <v>49.432487</v>
       </c>
       <c r="C2" t="n">
-        <v>10794</v>
+        <v>10084</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.03354</t>
+          <t>0.02724</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2e969473-c6ef-4290-b9f1-bcf7e461f943</t>
         </is>
       </c>
     </row>
@@ -480,14 +490,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.924857</v>
+        <v>52.440195</v>
       </c>
       <c r="C3" t="n">
-        <v>10611</v>
+        <v>10572</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03066</t>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63b9f14f-4aaa-4d4b-95c1-ebb777926aa5</t>
         </is>
       </c>
     </row>
@@ -498,14 +513,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.648506</v>
+        <v>74.365876</v>
       </c>
       <c r="C4" t="n">
-        <v>11215</v>
+        <v>10689</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03339</t>
+          <t>0.03621</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3d71bd80-a35d-4b84-af18-24dee56113a9</t>
         </is>
       </c>
     </row>
@@ -516,14 +536,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.44749899999999</v>
+        <v>56.554661</v>
       </c>
       <c r="C5" t="n">
-        <v>13271</v>
+        <v>10446</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03813</t>
+          <t>0.03231</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>4739e849-2511-4b2f-a7a7-443629b5650e</t>
         </is>
       </c>
     </row>
@@ -534,14 +559,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68.22047499999999</v>
+        <v>56.926973</v>
       </c>
       <c r="C6" t="n">
-        <v>10398</v>
+        <v>10455</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03126</t>
+          <t>0.03183</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10d2e98c-8b42-4f22-9d29-f76afbb65ddc</t>
         </is>
       </c>
     </row>
@@ -552,14 +582,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.054094</v>
+        <v>61.67979</v>
       </c>
       <c r="C7" t="n">
-        <v>10693</v>
+        <v>10726</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.03168</t>
+          <t>0.02967</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>cf0a1c4c-5ce7-4582-a13e-18e34a532c22</t>
         </is>
       </c>
     </row>
@@ -570,14 +605,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.091231</v>
+        <v>53.255171</v>
       </c>
       <c r="C8" t="n">
-        <v>10688</v>
+        <v>10344</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.03078</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95f9ce47-bc8d-419a-9823-9f079d86d7e2</t>
         </is>
       </c>
     </row>
@@ -588,14 +628,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.60854399999999</v>
+        <v>59.310951</v>
       </c>
       <c r="C9" t="n">
-        <v>13719</v>
+        <v>10470</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03552</t>
+          <t>0.03072</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>48d3f0d7-0bd6-426e-93d8-476f57e8c710</t>
         </is>
       </c>
     </row>
@@ -606,14 +651,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.20929700000001</v>
+        <v>63.549947</v>
       </c>
       <c r="C10" t="n">
-        <v>10961</v>
+        <v>10929</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03276</t>
+          <t>0.03558</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ef596f1a-c2ba-40e7-9ce8-f46ae79278ff</t>
         </is>
       </c>
     </row>
@@ -624,14 +674,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72.179134</v>
+        <v>50.171287</v>
       </c>
       <c r="C11" t="n">
-        <v>10178</v>
+        <v>10314</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02952</t>
+          <t>0.02973</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1d36438c-7f49-4bf7-b3c8-19dec57a84b1</t>
         </is>
       </c>
     </row>

--- a/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Medium_comparison/ReAct_Medium_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the toolkit.</t>
+          <t>Move to location (11, 8) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.432487</v>
+        <v>69.86899699999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10084</v>
+        <v>10337</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.02724</t>
+          <t>0.03084</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2e969473-c6ef-4290-b9f1-bcf7e461f943</t>
+          <t>1436cb36-0897-4d6d-abcf-c5a0e375c0d7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move to location (3, 8) and remove the liquid spill.</t>
+          <t>Move to location (7, 5) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.440195</v>
+        <v>69.502499</v>
       </c>
       <c r="C3" t="n">
-        <v>10572</v>
+        <v>10057</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>63b9f14f-4aaa-4d4b-95c1-ebb777926aa5</t>
+          <t>28e7e071-82d1-44fc-86c7-f8fab9f30c03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move to location (1, 4) and remove the large debris.</t>
+          <t>Move to location (8, 6) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.365876</v>
+        <v>74.52652500000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10689</v>
+        <v>10035</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03621</t>
+          <t>0.03024</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3d71bd80-a35d-4b84-af18-24dee56113a9</t>
+          <t>c99f35ad-283b-49ca-8f96-a780164c8567</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move to location (6, 5) and remove the dust.</t>
+          <t>Move to location (2, 4) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.554661</v>
+        <v>72.06699999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10446</v>
+        <v>10477</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.03231</t>
+          <t>0.03204</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4739e849-2511-4b2f-a7a7-443629b5650e</t>
+          <t>1881dc6a-7a58-4f7a-bd0b-5779cd3803ed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move to location (9, 5) and remove the grass.</t>
+          <t>Move to location (5, 2) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.926973</v>
+        <v>72.90800900000001</v>
       </c>
       <c r="C6" t="n">
-        <v>10455</v>
+        <v>9936</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.03183</t>
+          <t>0.03051</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10d2e98c-8b42-4f22-9d29-f76afbb65ddc</t>
+          <t>cafd0021-f8e5-4905-8ddf-8b61327535d5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move to location (5, 12) and remove the small debris.</t>
+          <t>Move to location (6, 7) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.67979</v>
+        <v>69.397496</v>
       </c>
       <c r="C7" t="n">
-        <v>10726</v>
+        <v>9694</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.02967</t>
+          <t>0.02667</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>cf0a1c4c-5ce7-4582-a13e-18e34a532c22</t>
+          <t>ccc1397c-31f8-482e-9304-768d60bf4f8a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move to location (11, 12) and remove the vehicle.</t>
+          <t>Move to location (3, 6) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.255171</v>
+        <v>72.98699999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>10344</v>
+        <v>10359</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.03078</t>
+          <t>0.0312</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95f9ce47-bc8d-419a-9823-9f079d86d7e2</t>
+          <t>ab1cc93b-28a9-4000-bb17-fbda0e764a1c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move to location (12, 1) and remove the construction materials.</t>
+          <t>Move to location (6, 6) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.310951</v>
+        <v>69.1215</v>
       </c>
       <c r="C9" t="n">
-        <v>10470</v>
+        <v>10182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.03072</t>
+          <t>0.02886</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>48d3f0d7-0bd6-426e-93d8-476f57e8c710</t>
+          <t>5b2996bd-f14a-42c8-9a43-516aaa54c78e</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move to location (8, 12) and remove the tree branches.</t>
+          <t>Move to location (3, 9) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.549947</v>
+        <v>66.399998</v>
       </c>
       <c r="C10" t="n">
-        <v>10929</v>
+        <v>10299</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.03558</t>
+          <t>0.03312</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ef596f1a-c2ba-40e7-9ce8-f46ae79278ff</t>
+          <t>2e7c5e9d-3e12-4334-911e-406ed60c30c9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move to location (3, 5) and remove the screws.</t>
+          <t>Move to location (6, 6) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.171287</v>
+        <v>64.45051599999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10314</v>
+        <v>10228</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.02973</t>
+          <t>0.02985</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1d36438c-7f49-4bf7-b3c8-19dec57a84b1</t>
+          <t>74fcfe22-19f2-4414-9fbf-fedc381c215f</t>
         </is>
       </c>
     </row>
